--- a/Archive1.xlsx
+++ b/Archive1.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FeiqiZhang/Desktop/gitSmart/pycrawler3d/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="49820" windowHeight="28340" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>沃尔玛</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Latest record row #</t>
   </si>
@@ -29,28 +40,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,18 +68,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="普通" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -402,63 +410,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <f>HYPERLINK(input2)</f>
-        <v/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="n">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Archive1.xlsx
+++ b/Archive1.xlsx
@@ -1,58 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FeiqiZhang/Desktop/gitSmart/pycrawler3d/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="460" windowWidth="49820" windowHeight="28340" activeTab="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>Latest record row #</t>
+    <t>沃尔玛</t>
   </si>
   <si>
-    <t>Index list</t>
+    <t>https://www.leiphone.com/news/201710/jvHyvCSQzkNAA4N0.html</t>
+  </si>
+  <si>
+    <t>CCSP</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201710/ILN4vjssF3rvvd31.html</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/tag/CCSP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <family val="2"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,24 +72,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="普通" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -410,47 +405,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:1">
+      <c r="A2" t="n">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Archive1.xlsx
+++ b/Archive1.xlsx
@@ -1,62 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FeiqiZhang/Desktop/gitSmart/pycrawler3d/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="49680" windowHeight="28340"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3D" sheetId="1" r:id="rId1"/>
+    <sheet name="other" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
-  <si>
-    <t>沃尔玛</t>
-  </si>
-  <si>
-    <t>https://www.leiphone.com/news/201710/jvHyvCSQzkNAA4N0.html</t>
-  </si>
-  <si>
-    <t>CCSP</t>
-  </si>
-  <si>
-    <t>https://www.leiphone.com/news/201710/ILN4vjssF3rvvd31.html</t>
-  </si>
-  <si>
-    <t>https://www.leiphone.com/tag/CCSP</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <name val="宋体"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,15 +62,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="普通" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -405,74 +401,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Archive1.xlsx
+++ b/Archive1.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="49680" windowHeight="28340"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="27280" windowHeight="17600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3D" sheetId="1" r:id="rId1"/>
     <sheet name="other" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,10 +28,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
@@ -40,7 +36,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -71,7 +66,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -81,9 +76,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="办公室">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -91,44 +86,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="办公室">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -158,12 +153,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -193,7 +188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="办公室">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -202,201 +197,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -404,13 +340,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -422,20 +356,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
     </row>

--- a/Archive1.xlsx
+++ b/Archive1.xlsx
@@ -1,47 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FeiqiZhang/Desktop/gitSmart/pycrawler3d/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="27280" windowHeight="17600" tabRatio="500" activeTab="2"/>
+    <workbookView activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="3D" sheetId="1" r:id="rId1"/>
-    <sheet name="other" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3D" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="other" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>http://www.mooc.ai/?f=leiphone</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/category/aijuejinzhi</t>
+  </si>
+  <si>
+    <t>https://gair.leiphone.com/</t>
+  </si>
+  <si>
+    <t>/banner/homepageUrl/id/2560</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201711/suWz4dG0uUbRt55y.html</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201710/4mTT9R5gtDoON6b1.html</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/tag/AI</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201710/TRSOG0NNXjqM8gWt.html</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201709/y87Qz9BHFhvaw42y.html</t>
+  </si>
+  <si>
+    <t>http://www.mooc.ai</t>
+  </si>
+  <si>
+    <t>http://www.leiphone.com/tag/GAIR</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/category/arvr</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201710/sze3X1P1mCnPZd4N.html</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/tag/AR</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201710/R8ghqxioT4k3MGz4.html</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201710/nKadThvNztu1UApr.html</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201709/6xPZtkGc6CtKQa5B.html</t>
+  </si>
+  <si>
+    <t>http://www.leiphone.com/tag/AR</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/category/ai</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/tag/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201710/C3ISsKYwITQYBD5X.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.leiphone.com/tag/人工智能 </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,21 +125,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -337,48 +399,335 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Archive1.xlsx
+++ b/Archive1.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FeiqiZhang/Desktop/gitSmart/pycrawler3d/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="49740" windowHeight="28340" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3D" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="other" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="3D" sheetId="1" r:id="rId1"/>
+    <sheet name="other" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>AI</t>
   </si>
@@ -33,18 +47,15 @@
     <t>/banner/homepageUrl/id/2560</t>
   </si>
   <si>
+    <t>https://www.leiphone.com/category/yanxishe</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/news/201711/5tKlJdCdr81qtomc.html</t>
+  </si>
+  <si>
     <t>https://www.leiphone.com/news/201711/suWz4dG0uUbRt55y.html</t>
   </si>
   <si>
-    <t>https://www.leiphone.com/news/201710/4mTT9R5gtDoON6b1.html</t>
-  </si>
-  <si>
-    <t>https://www.leiphone.com/tag/AI</t>
-  </si>
-  <si>
-    <t>https://www.leiphone.com/news/201710/TRSOG0NNXjqM8gWt.html</t>
-  </si>
-  <si>
     <t>https://www.leiphone.com/news/201709/y87Qz9BHFhvaw42y.html</t>
   </si>
   <si>
@@ -54,18 +65,30 @@
     <t>http://www.leiphone.com/tag/GAIR</t>
   </si>
   <si>
+    <t>机器学习</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/tag/%E6%9C%BA%E5%99%A8%E5%AD%A6%E4%B9%A0</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
     <t>https://www.leiphone.com/category/arvr</t>
   </si>
   <si>
-    <t>https://www.leiphone.com/news/201710/sze3X1P1mCnPZd4N.html</t>
+    <t>https://www.leiphone.com/news/201711/Ijg8KsFZZyXT0Wgn.html</t>
   </si>
   <si>
     <t>https://www.leiphone.com/tag/AR</t>
   </si>
   <si>
+    <t>https://www.leiphone.com/news/201711/5wPQ4sOsv3Hcfm1M.html</t>
+  </si>
+  <si>
+    <t>https://www.leiphone.com/tag/AR+%E7%9C%BC%E9%95%9C</t>
+  </si>
+  <si>
     <t>https://www.leiphone.com/news/201710/R8ghqxioT4k3MGz4.html</t>
   </si>
   <si>
@@ -75,41 +98,28 @@
     <t>https://www.leiphone.com/news/201709/6xPZtkGc6CtKQa5B.html</t>
   </si>
   <si>
-    <t>http://www.leiphone.com/tag/AR</t>
-  </si>
-  <si>
     <t>人工智能</t>
   </si>
   <si>
     <t>https://www.leiphone.com/category/ai</t>
-  </si>
-  <si>
-    <t>https://www.leiphone.com/tag/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD</t>
-  </si>
-  <si>
-    <t>https://www.leiphone.com/news/201710/C3ISsKYwITQYBD5X.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.leiphone.com/tag/人工智能 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,15 +135,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,335 +415,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>81</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>